--- a/dados/entrada/escala_do_dia/escala.xlsx
+++ b/dados/entrada/escala_do_dia/escala.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.martins1\Desktop\Sistema_interno_Guilherme\dados\entrada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.martins1\Desktop\Sistema_interno_Almoxarifado_Procisa\dados\entrada\escala_do_dia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026BE432-91B5-4E2C-B5C3-D3DAE269B592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4565C61-4ED0-4846-B5FA-D979E691FF24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9105" xr2:uid="{3EBBA2E8-8C9C-494E-9344-91BC563CD752}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="EPI" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CAMPO!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CAMPO!$A$1:$F$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TREINAMENTO!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="103">
   <si>
     <t>RE</t>
   </si>
@@ -45,6 +45,12 @@
     <t>SUPORTE DE PRODUÇÃO</t>
   </si>
   <si>
+    <t>Z563480</t>
+  </si>
+  <si>
+    <t>ALEXSANDRO SANTOS DE OLIVEIRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CINTIA  MACEDO </t>
   </si>
   <si>
@@ -57,21 +63,27 @@
     <t>FERNANDA GRAZIELE</t>
   </si>
   <si>
+    <t>Z563512</t>
+  </si>
+  <si>
+    <t>DAVID MANJOLI DE SOUZA</t>
+  </si>
+  <si>
     <t>JEFFERSON MELLO</t>
   </si>
   <si>
+    <t>Z586156</t>
+  </si>
+  <si>
+    <t>DOUGLAS DE FREITAS FREITAS</t>
+  </si>
+  <si>
     <t>Z562708</t>
   </si>
   <si>
     <t>EDSON BARROS DOS SANTOS</t>
   </si>
   <si>
-    <t>Z586158</t>
-  </si>
-  <si>
-    <t>FABIO SILVA DOS SANTOS</t>
-  </si>
-  <si>
     <t>Z560957</t>
   </si>
   <si>
@@ -96,6 +108,9 @@
     <t>JACQUES HELENO DE MATTOS</t>
   </si>
   <si>
+    <t>JORDAN DE FREITAS BATISTA SILVIERA</t>
+  </si>
+  <si>
     <t>Z562061</t>
   </si>
   <si>
@@ -108,6 +123,12 @@
     <t>LEANDRO STEFANI MOLINARI</t>
   </si>
   <si>
+    <t>Z571110</t>
+  </si>
+  <si>
+    <t>LUCAS LACERDA OLIVEIRA</t>
+  </si>
+  <si>
     <t>Z563477</t>
   </si>
   <si>
@@ -120,12 +141,36 @@
     <t>LUZIANE PENS GARCIA</t>
   </si>
   <si>
+    <t>Z583574</t>
+  </si>
+  <si>
+    <t>MARCELO LEANDRO SILVA DA SILVA</t>
+  </si>
+  <si>
+    <t>Z583575</t>
+  </si>
+  <si>
+    <t>MARCUS VINICIUS COELHO LEITE</t>
+  </si>
+  <si>
     <t>Z560063</t>
   </si>
   <si>
     <t>MATHEUS DE OLIVEIRA SEVERO</t>
   </si>
   <si>
+    <t>Z595262</t>
+  </si>
+  <si>
+    <t>MATHEUS FRANCO COSTA</t>
+  </si>
+  <si>
+    <t>Z563712</t>
+  </si>
+  <si>
+    <t>MATHIAS BATISTA LIMA</t>
+  </si>
+  <si>
     <t>Z562710</t>
   </si>
   <si>
@@ -150,6 +195,12 @@
     <t>VANDER CALISTRO OLIVEIRA</t>
   </si>
   <si>
+    <t>Z563468</t>
+  </si>
+  <si>
+    <t>VINICIUS HONORATO DA CONCEICAO</t>
+  </si>
+  <si>
     <t>Z571113</t>
   </si>
   <si>
@@ -159,6 +210,27 @@
     <t>SKILL</t>
   </si>
   <si>
+    <t>Z600960</t>
+  </si>
+  <si>
+    <t>FELIPE BANDEIRA DE FREITAS</t>
+  </si>
+  <si>
+    <t>Z601592</t>
+  </si>
+  <si>
+    <t>WILLIAM MULLER DA LUZ</t>
+  </si>
+  <si>
+    <t>PATRICK GONÇALVES CANABARRO</t>
+  </si>
+  <si>
+    <t>Z600970</t>
+  </si>
+  <si>
+    <t>RENAN DA ROSA PEDROSO</t>
+  </si>
+  <si>
     <t>TREINAMENTO 398</t>
   </si>
   <si>
@@ -240,20 +312,41 @@
     <t>ALMOXARIFADO</t>
   </si>
   <si>
-    <t>JEFFERSON MELLO/ VT</t>
-  </si>
-  <si>
-    <t>QUA/SEX</t>
-  </si>
-  <si>
-    <t>VT</t>
+    <t>SEG/ QUINTA</t>
+  </si>
+  <si>
+    <t>Z608155</t>
+  </si>
+  <si>
+    <t>ANDERSON LUIS SOARES SARAIVA</t>
+  </si>
+  <si>
+    <t>Z608158</t>
+  </si>
+  <si>
+    <t>RAFAEL VARGAS SOUZA</t>
+  </si>
+  <si>
+    <t>Z625772</t>
+  </si>
+  <si>
+    <t>Z625774</t>
+  </si>
+  <si>
+    <t>JAMILSON FREITAS COSTA </t>
+  </si>
+  <si>
+    <t>Z632498</t>
+  </si>
+  <si>
+    <t>GPON+HFC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,9 +362,22 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -315,6 +421,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -323,12 +435,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -359,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,32 +473,59 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -702,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE223545-A9B8-4F69-AFE2-9CB4A764298C}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,134 +863,557 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>161231</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>163206</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>162352</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>161108</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>162401</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>162952</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>161059</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>161107</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>162360</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>160968</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>160969</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>162151</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>161433</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>160970</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>162272</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>162361</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>161230</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>162352</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>160822</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>162400</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>162738</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>160829</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>160826</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>161030</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
+      <c r="E19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>161470</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>162931</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>163205</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>162922</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>161224</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>161491</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>162153</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>162946</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>163643</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F7" xr:uid="{B92E046E-5AC6-4B01-A389-26FA316C0856}"/>
+  <autoFilter ref="A1:F28" xr:uid="{EA6D07FA-DBE6-4BD1-901E-A07812D16287}"/>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -893,190 +1449,190 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>161059</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>161107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>161230</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>161030</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>160971</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>160833</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>161224</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>160968</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>160970</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>160822</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>161107</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>161230</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>160969</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>161030</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>160971</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>160833</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>161224</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>160968</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>160970</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>160822</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>160969</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>160826</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E13" xr:uid="{4D8806FD-DD6E-4927-8C80-C84DE50FE814}"/>
@@ -1102,237 +1658,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>49</v>
+      <c r="C1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>163393</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="9">
         <v>6091138823</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>2781525030</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>51989801758</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>53</v>
+      <c r="G2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>159426</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11">
         <v>6710968</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="11">
         <v>70559122087</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="11">
         <v>51989797528</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>161651</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1106082363</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2158005084</v>
+      </c>
+      <c r="F4" s="9">
+        <v>51989799288</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>162914</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1115492017</v>
+      </c>
+      <c r="E5" s="11">
+        <v>87525593000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>51989801984</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>161107</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9123501828</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4737939030</v>
+      </c>
+      <c r="F6" s="12">
+        <v>51989801538</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>160829</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4077079641</v>
+      </c>
+      <c r="E7" s="12">
+        <v>164455035</v>
+      </c>
+      <c r="F7" s="12">
+        <v>51989799196</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>161433</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="12">
+        <v>5090918888</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1736045016</v>
+      </c>
+      <c r="F8" s="12">
+        <v>51989799671</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>162153</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>161651</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1106082363</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2158005084</v>
-      </c>
-      <c r="F4" s="6">
-        <v>51989799288</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>162914</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1115492017</v>
-      </c>
-      <c r="E5" s="8">
-        <v>87525593000</v>
-      </c>
-      <c r="F5" s="8">
-        <v>51989801984</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>161107</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9">
-        <v>9123501828</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4737939030</v>
-      </c>
-      <c r="F6" s="9">
-        <v>51989801538</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>160829</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9">
-        <v>4077079641</v>
-      </c>
-      <c r="E7" s="9">
-        <v>164455035</v>
-      </c>
-      <c r="F7" s="9">
-        <v>51989799196</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>161433</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9">
-        <v>5090918888</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1736045016</v>
-      </c>
-      <c r="F8" s="9">
-        <v>51989799671</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>162153</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="D9" s="12">
         <v>3095906998</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <v>1839298022</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="12">
         <v>51989799747</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>64</v>
+      <c r="G9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
